--- a/db_records.xlsx
+++ b/db_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitk\Desktop\University-answer-booklet-eval-dash\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC95524-896D-4D01-BC4C-8CE2752A5316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C1906F-4E23-4103-8A6C-FFCAB3E71F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
